--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Tgfbr2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.79985513967209</v>
+        <v>1.828226333333333</v>
       </c>
       <c r="H2">
-        <v>1.79985513967209</v>
+        <v>5.484679</v>
       </c>
       <c r="I2">
-        <v>0.02330470212011326</v>
+        <v>0.02222218683751419</v>
       </c>
       <c r="J2">
-        <v>0.02330470212011326</v>
+        <v>0.02377799715221334</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.4927655384686</v>
+        <v>23.433081</v>
       </c>
       <c r="N2">
-        <v>16.4927655384686</v>
+        <v>70.29924299999999</v>
       </c>
       <c r="O2">
-        <v>0.1343057039925842</v>
+        <v>0.173071867147068</v>
       </c>
       <c r="P2">
-        <v>0.1343057039925842</v>
+        <v>0.1775303340800033</v>
       </c>
       <c r="Q2">
-        <v>29.68458882181944</v>
+        <v>42.840975755333</v>
       </c>
       <c r="R2">
-        <v>29.68458882181944</v>
+        <v>385.568781797997</v>
       </c>
       <c r="S2">
-        <v>0.003129954424579281</v>
+        <v>0.00384603536805958</v>
       </c>
       <c r="T2">
-        <v>0.003129954424579281</v>
+        <v>0.004221315778185801</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.79985513967209</v>
+        <v>1.828226333333333</v>
       </c>
       <c r="H3">
-        <v>1.79985513967209</v>
+        <v>5.484679</v>
       </c>
       <c r="I3">
-        <v>0.02330470212011326</v>
+        <v>0.02222218683751419</v>
       </c>
       <c r="J3">
-        <v>0.02330470212011326</v>
+        <v>0.02377799715221334</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.3059136984668</v>
+        <v>41.43333666666666</v>
       </c>
       <c r="N3">
-        <v>40.3059136984668</v>
+        <v>124.30001</v>
       </c>
       <c r="O3">
-        <v>0.3282235536369342</v>
+        <v>0.3060180152594135</v>
       </c>
       <c r="P3">
-        <v>0.3282235536369342</v>
+        <v>0.3139012791567009</v>
       </c>
       <c r="Q3">
-        <v>72.54480592936518</v>
+        <v>75.74951717186555</v>
       </c>
       <c r="R3">
-        <v>72.54480592936518</v>
+        <v>681.7456545467899</v>
       </c>
       <c r="S3">
-        <v>0.007649152146313769</v>
+        <v>0.006800389510739957</v>
       </c>
       <c r="T3">
-        <v>0.007649152146313769</v>
+        <v>0.007463943721864159</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.79985513967209</v>
+        <v>1.828226333333333</v>
       </c>
       <c r="H4">
-        <v>1.79985513967209</v>
+        <v>5.484679</v>
       </c>
       <c r="I4">
-        <v>0.02330470212011326</v>
+        <v>0.02222218683751419</v>
       </c>
       <c r="J4">
-        <v>0.02330470212011326</v>
+        <v>0.02377799715221334</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.2922522327936</v>
+        <v>30.91984733333334</v>
       </c>
       <c r="N4">
-        <v>27.2922522327936</v>
+        <v>92.75954200000001</v>
       </c>
       <c r="O4">
-        <v>0.2222492729384229</v>
+        <v>0.228367567622981</v>
       </c>
       <c r="P4">
-        <v>0.2222492729384229</v>
+        <v>0.2342504951350344</v>
       </c>
       <c r="Q4">
-        <v>49.12210045442064</v>
+        <v>56.52847911744645</v>
       </c>
       <c r="R4">
-        <v>49.12210045442064</v>
+        <v>508.756312057018</v>
       </c>
       <c r="S4">
-        <v>0.005179453102241696</v>
+        <v>0.005074826755346542</v>
       </c>
       <c r="T4">
-        <v>0.005179453102241696</v>
+        <v>0.005570007606225414</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.79985513967209</v>
+        <v>1.828226333333333</v>
       </c>
       <c r="H5">
-        <v>1.79985513967209</v>
+        <v>5.484679</v>
       </c>
       <c r="I5">
-        <v>0.02330470212011326</v>
+        <v>0.02222218683751419</v>
       </c>
       <c r="J5">
-        <v>0.02330470212011326</v>
+        <v>0.02377799715221334</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.5273345884835</v>
+        <v>29.40795633333333</v>
       </c>
       <c r="N5">
-        <v>28.5273345884835</v>
+        <v>88.22386900000001</v>
       </c>
       <c r="O5">
-        <v>0.2323069315453344</v>
+        <v>0.2172010548501686</v>
       </c>
       <c r="P5">
-        <v>0.2323069315453344</v>
+        <v>0.2227963242420754</v>
       </c>
       <c r="Q5">
-        <v>51.34506978022742</v>
+        <v>53.76440017811678</v>
       </c>
       <c r="R5">
-        <v>51.34506978022742</v>
+        <v>483.879601603051</v>
       </c>
       <c r="S5">
-        <v>0.00541384384010156</v>
+        <v>0.004826682422185615</v>
       </c>
       <c r="T5">
-        <v>0.00541384384010156</v>
+        <v>0.005297650363351669</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.79985513967209</v>
+        <v>1.828226333333333</v>
       </c>
       <c r="H6">
-        <v>1.79985513967209</v>
+        <v>5.484679</v>
       </c>
       <c r="I6">
-        <v>0.02330470212011326</v>
+        <v>0.02222218683751419</v>
       </c>
       <c r="J6">
-        <v>0.02330470212011326</v>
+        <v>0.02377799715221334</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.1819207408475</v>
+        <v>10.2008685</v>
       </c>
       <c r="N6">
-        <v>10.1819207408475</v>
+        <v>20.401737</v>
       </c>
       <c r="O6">
-        <v>0.08291453788672445</v>
+        <v>0.07534149512036896</v>
       </c>
       <c r="P6">
-        <v>0.08291453788672445</v>
+        <v>0.05152156738618599</v>
       </c>
       <c r="Q6">
-        <v>18.32598237714823</v>
+        <v>18.6494964145705</v>
       </c>
       <c r="R6">
-        <v>18.32598237714823</v>
+        <v>111.896978487423</v>
       </c>
       <c r="S6">
-        <v>0.001932298606876959</v>
+        <v>0.001674252781182503</v>
       </c>
       <c r="T6">
-        <v>0.001932298606876959</v>
+        <v>0.001225079682586298</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>60.062829407467</v>
+        <v>63.311587</v>
       </c>
       <c r="H7">
-        <v>60.062829407467</v>
+        <v>189.934761</v>
       </c>
       <c r="I7">
-        <v>0.7776994475717712</v>
+        <v>0.769555656015713</v>
       </c>
       <c r="J7">
-        <v>0.7776994475717712</v>
+        <v>0.8234334600373736</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.4927655384686</v>
+        <v>23.433081</v>
       </c>
       <c r="N7">
-        <v>16.4927655384686</v>
+        <v>70.29924299999999</v>
       </c>
       <c r="O7">
-        <v>0.1343057039925842</v>
+        <v>0.173071867147068</v>
       </c>
       <c r="P7">
-        <v>0.1343057039925842</v>
+        <v>0.1775303340800033</v>
       </c>
       <c r="Q7">
-        <v>990.6021629943901</v>
+        <v>1483.585546409547</v>
       </c>
       <c r="R7">
-        <v>990.6021629943901</v>
+        <v>13352.26991768592</v>
       </c>
       <c r="S7">
-        <v>0.1044494718007706</v>
+        <v>0.1331884342602262</v>
       </c>
       <c r="T7">
-        <v>0.1044494718007706</v>
+        <v>0.146184417253088</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>60.062829407467</v>
+        <v>63.311587</v>
       </c>
       <c r="H8">
-        <v>60.062829407467</v>
+        <v>189.934761</v>
       </c>
       <c r="I8">
-        <v>0.7776994475717712</v>
+        <v>0.769555656015713</v>
       </c>
       <c r="J8">
-        <v>0.7776994475717712</v>
+        <v>0.8234334600373736</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>40.3059136984668</v>
+        <v>41.43333666666666</v>
       </c>
       <c r="N8">
-        <v>40.3059136984668</v>
+        <v>124.30001</v>
       </c>
       <c r="O8">
-        <v>0.3282235536369342</v>
+        <v>0.3060180152594135</v>
       </c>
       <c r="P8">
-        <v>0.3282235536369342</v>
+        <v>0.3139012791567009</v>
       </c>
       <c r="Q8">
-        <v>2420.887218583099</v>
+        <v>2623.210299071956</v>
       </c>
       <c r="R8">
-        <v>2420.887218583099</v>
+        <v>23608.89269164761</v>
       </c>
       <c r="S8">
-        <v>0.2552592763434873</v>
+        <v>0.2354978944855844</v>
       </c>
       <c r="T8">
-        <v>0.2552592763434873</v>
+        <v>0.2584768164061597</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>60.062829407467</v>
+        <v>63.311587</v>
       </c>
       <c r="H9">
-        <v>60.062829407467</v>
+        <v>189.934761</v>
       </c>
       <c r="I9">
-        <v>0.7776994475717712</v>
+        <v>0.769555656015713</v>
       </c>
       <c r="J9">
-        <v>0.7776994475717712</v>
+        <v>0.8234334600373736</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.2922522327936</v>
+        <v>30.91984733333334</v>
       </c>
       <c r="N9">
-        <v>27.2922522327936</v>
+        <v>92.75954200000001</v>
       </c>
       <c r="O9">
-        <v>0.2222492729384229</v>
+        <v>0.228367567622981</v>
       </c>
       <c r="P9">
-        <v>0.2222492729384229</v>
+        <v>0.2342504951350344</v>
       </c>
       <c r="Q9">
-        <v>1639.249890003842</v>
+        <v>1957.584604471052</v>
       </c>
       <c r="R9">
-        <v>1639.249890003842</v>
+        <v>17618.26144023946</v>
       </c>
       <c r="S9">
-        <v>0.1728431367874393</v>
+        <v>0.1757415533148159</v>
       </c>
       <c r="T9">
-        <v>0.1728431367874393</v>
+        <v>0.1928896957245093</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>60.062829407467</v>
+        <v>63.311587</v>
       </c>
       <c r="H10">
-        <v>60.062829407467</v>
+        <v>189.934761</v>
       </c>
       <c r="I10">
-        <v>0.7776994475717712</v>
+        <v>0.769555656015713</v>
       </c>
       <c r="J10">
-        <v>0.7776994475717712</v>
+        <v>0.8234334600373736</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.5273345884835</v>
+        <v>29.40795633333333</v>
       </c>
       <c r="N10">
-        <v>28.5273345884835</v>
+        <v>88.22386900000001</v>
       </c>
       <c r="O10">
-        <v>0.2323069315453344</v>
+        <v>0.2172010548501686</v>
       </c>
       <c r="P10">
-        <v>0.2323069315453344</v>
+        <v>0.2227963242420754</v>
       </c>
       <c r="Q10">
-        <v>1713.432430837817</v>
+        <v>1861.864385890035</v>
       </c>
       <c r="R10">
-        <v>1713.432430837817</v>
+        <v>16756.77947301031</v>
       </c>
       <c r="S10">
-        <v>0.1806649723298998</v>
+        <v>0.1671483002525264</v>
       </c>
       <c r="T10">
-        <v>0.1806649723298998</v>
+        <v>0.1834579481542607</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>60.062829407467</v>
+        <v>63.311587</v>
       </c>
       <c r="H11">
-        <v>60.062829407467</v>
+        <v>189.934761</v>
       </c>
       <c r="I11">
-        <v>0.7776994475717712</v>
+        <v>0.769555656015713</v>
       </c>
       <c r="J11">
-        <v>0.7776994475717712</v>
+        <v>0.8234334600373736</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.1819207408475</v>
+        <v>10.2008685</v>
       </c>
       <c r="N11">
-        <v>10.1819207408475</v>
+        <v>20.401737</v>
       </c>
       <c r="O11">
-        <v>0.08291453788672445</v>
+        <v>0.07534149512036896</v>
       </c>
       <c r="P11">
-        <v>0.08291453788672445</v>
+        <v>0.05152156738618599</v>
       </c>
       <c r="Q11">
-        <v>611.5549684978735</v>
+        <v>645.8331735133095</v>
       </c>
       <c r="R11">
-        <v>611.5549684978735</v>
+        <v>3874.999041079857</v>
       </c>
       <c r="S11">
-        <v>0.06448259031017431</v>
+        <v>0.05797947370256017</v>
       </c>
       <c r="T11">
-        <v>0.06448259031017431</v>
+        <v>0.04242458249935583</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>15.3687312588031</v>
+        <v>0.4007523333333333</v>
       </c>
       <c r="H12">
-        <v>15.3687312588031</v>
+        <v>1.202257</v>
       </c>
       <c r="I12">
-        <v>0.1989958503081155</v>
+        <v>0.004871165601616667</v>
       </c>
       <c r="J12">
-        <v>0.1989958503081155</v>
+        <v>0.005212203580597617</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.4927655384686</v>
+        <v>23.433081</v>
       </c>
       <c r="N12">
-        <v>16.4927655384686</v>
+        <v>70.29924299999999</v>
       </c>
       <c r="O12">
-        <v>0.1343057039925842</v>
+        <v>0.173071867147068</v>
       </c>
       <c r="P12">
-        <v>0.1343057039925842</v>
+        <v>0.1775303340800033</v>
       </c>
       <c r="Q12">
-        <v>253.4728812751729</v>
+        <v>9.390861887938998</v>
       </c>
       <c r="R12">
-        <v>253.4728812751729</v>
+        <v>84.51775699145098</v>
       </c>
       <c r="S12">
-        <v>0.02672627776723436</v>
+        <v>0.0008430617258543674</v>
       </c>
       <c r="T12">
-        <v>0.02672627776723436</v>
+        <v>0.0009253242429564842</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>15.3687312588031</v>
+        <v>0.4007523333333333</v>
       </c>
       <c r="H13">
-        <v>15.3687312588031</v>
+        <v>1.202257</v>
       </c>
       <c r="I13">
-        <v>0.1989958503081155</v>
+        <v>0.004871165601616667</v>
       </c>
       <c r="J13">
-        <v>0.1989958503081155</v>
+        <v>0.005212203580597617</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>40.3059136984668</v>
+        <v>41.43333666666666</v>
       </c>
       <c r="N13">
-        <v>40.3059136984668</v>
+        <v>124.30001</v>
       </c>
       <c r="O13">
-        <v>0.3282235536369342</v>
+        <v>0.3060180152594135</v>
       </c>
       <c r="P13">
-        <v>0.3282235536369342</v>
+        <v>0.3139012791567009</v>
       </c>
       <c r="Q13">
-        <v>619.4507557722468</v>
+        <v>16.60450634695222</v>
       </c>
       <c r="R13">
-        <v>619.4507557722468</v>
+        <v>149.44055712257</v>
       </c>
       <c r="S13">
-        <v>0.06531512514713309</v>
+        <v>0.00149066442940666</v>
       </c>
       <c r="T13">
-        <v>0.06531512514713309</v>
+        <v>0.001636117371174728</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>15.3687312588031</v>
+        <v>0.4007523333333333</v>
       </c>
       <c r="H14">
-        <v>15.3687312588031</v>
+        <v>1.202257</v>
       </c>
       <c r="I14">
-        <v>0.1989958503081155</v>
+        <v>0.004871165601616667</v>
       </c>
       <c r="J14">
-        <v>0.1989958503081155</v>
+        <v>0.005212203580597617</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>27.2922522327936</v>
+        <v>30.91984733333334</v>
       </c>
       <c r="N14">
-        <v>27.2922522327936</v>
+        <v>92.75954200000001</v>
       </c>
       <c r="O14">
-        <v>0.2222492729384229</v>
+        <v>0.228367567622981</v>
       </c>
       <c r="P14">
-        <v>0.2222492729384229</v>
+        <v>0.2342504951350344</v>
       </c>
       <c r="Q14">
-        <v>419.4472900132737</v>
+        <v>12.39120096514378</v>
       </c>
       <c r="R14">
-        <v>419.4472900132737</v>
+        <v>111.520808686294</v>
       </c>
       <c r="S14">
-        <v>0.04422668304874192</v>
+        <v>0.001112416239929933</v>
       </c>
       <c r="T14">
-        <v>0.04422668304874192</v>
+        <v>0.001220961269499591</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>15.3687312588031</v>
+        <v>0.4007523333333333</v>
       </c>
       <c r="H15">
-        <v>15.3687312588031</v>
+        <v>1.202257</v>
       </c>
       <c r="I15">
-        <v>0.1989958503081155</v>
+        <v>0.004871165601616667</v>
       </c>
       <c r="J15">
-        <v>0.1989958503081155</v>
+        <v>0.005212203580597617</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>28.5273345884835</v>
+        <v>29.40795633333333</v>
       </c>
       <c r="N15">
-        <v>28.5273345884835</v>
+        <v>88.22386900000001</v>
       </c>
       <c r="O15">
-        <v>0.2323069315453344</v>
+        <v>0.2172010548501686</v>
       </c>
       <c r="P15">
-        <v>0.2323069315453344</v>
+        <v>0.2227963242420754</v>
       </c>
       <c r="Q15">
-        <v>438.4289388203613</v>
+        <v>11.78530711914811</v>
       </c>
       <c r="R15">
-        <v>438.4289388203613</v>
+        <v>106.067764072333</v>
       </c>
       <c r="S15">
-        <v>0.046228115375333</v>
+        <v>0.001058022307020996</v>
       </c>
       <c r="T15">
-        <v>0.046228115375333</v>
+        <v>0.001161259798958533</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.4007523333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.202257</v>
+      </c>
+      <c r="I16">
+        <v>0.004871165601616667</v>
+      </c>
+      <c r="J16">
+        <v>0.005212203580597617</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.2008685</v>
+      </c>
+      <c r="N16">
+        <v>20.401737</v>
+      </c>
+      <c r="O16">
+        <v>0.07534149512036896</v>
+      </c>
+      <c r="P16">
+        <v>0.05152156738618599</v>
+      </c>
+      <c r="Q16">
+        <v>4.088021853401499</v>
+      </c>
+      <c r="R16">
+        <v>24.52813112040899</v>
+      </c>
+      <c r="S16">
+        <v>0.0003670008994047113</v>
+      </c>
+      <c r="T16">
+        <v>0.00026854089800828</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.5807443333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.742233</v>
+      </c>
+      <c r="I17">
+        <v>0.00705897778894314</v>
+      </c>
+      <c r="J17">
+        <v>0.007553187946366982</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>23.433081</v>
+      </c>
+      <c r="N17">
+        <v>70.29924299999999</v>
+      </c>
+      <c r="O17">
+        <v>0.173071867147068</v>
+      </c>
+      <c r="P17">
+        <v>0.1775303340800033</v>
+      </c>
+      <c r="Q17">
+        <v>13.608629003291</v>
+      </c>
+      <c r="R17">
+        <v>122.477661029619</v>
+      </c>
+      <c r="S17">
+        <v>0.001221710466082071</v>
+      </c>
+      <c r="T17">
+        <v>0.001340919979487584</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.5807443333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.742233</v>
+      </c>
+      <c r="I18">
+        <v>0.00705897778894314</v>
+      </c>
+      <c r="J18">
+        <v>0.007553187946366982</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>41.43333666666666</v>
+      </c>
+      <c r="N18">
+        <v>124.30001</v>
+      </c>
+      <c r="O18">
+        <v>0.3060180152594135</v>
+      </c>
+      <c r="P18">
+        <v>0.3139012791567009</v>
+      </c>
+      <c r="Q18">
+        <v>24.06217548025889</v>
+      </c>
+      <c r="R18">
+        <v>216.55957932233</v>
+      </c>
+      <c r="S18">
+        <v>0.002160174372732663</v>
+      </c>
+      <c r="T18">
+        <v>0.00237095535807557</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.5807443333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.742233</v>
+      </c>
+      <c r="I19">
+        <v>0.00705897778894314</v>
+      </c>
+      <c r="J19">
+        <v>0.007553187946366982</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>30.91984733333334</v>
+      </c>
+      <c r="N19">
+        <v>92.75954200000001</v>
+      </c>
+      <c r="O19">
+        <v>0.228367567622981</v>
+      </c>
+      <c r="P19">
+        <v>0.2342504951350344</v>
+      </c>
+      <c r="Q19">
+        <v>17.95652612636512</v>
+      </c>
+      <c r="R19">
+        <v>161.608735137286</v>
+      </c>
+      <c r="S19">
+        <v>0.001612041587565594</v>
+      </c>
+      <c r="T19">
+        <v>0.001769338016284439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.5807443333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.742233</v>
+      </c>
+      <c r="I20">
+        <v>0.00705897778894314</v>
+      </c>
+      <c r="J20">
+        <v>0.007553187946366982</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>29.40795633333333</v>
+      </c>
+      <c r="N20">
+        <v>88.22386900000001</v>
+      </c>
+      <c r="O20">
+        <v>0.2172010548501686</v>
+      </c>
+      <c r="P20">
+        <v>0.2227963242420754</v>
+      </c>
+      <c r="Q20">
+        <v>17.07850399549745</v>
+      </c>
+      <c r="R20">
+        <v>153.706535959477</v>
+      </c>
+      <c r="S20">
+        <v>0.001533217421922361</v>
+      </c>
+      <c r="T20">
+        <v>0.001682822510760114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.5807443333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.742233</v>
+      </c>
+      <c r="I21">
+        <v>0.00705897778894314</v>
+      </c>
+      <c r="J21">
+        <v>0.007553187946366982</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10.2008685</v>
+      </c>
+      <c r="N21">
+        <v>20.401737</v>
+      </c>
+      <c r="O21">
+        <v>0.07534149512036896</v>
+      </c>
+      <c r="P21">
+        <v>0.05152156738618599</v>
+      </c>
+      <c r="Q21">
+        <v>5.9240965764535</v>
+      </c>
+      <c r="R21">
+        <v>35.544579458721</v>
+      </c>
+      <c r="S21">
+        <v>0.0005318339406404525</v>
+      </c>
+      <c r="T21">
+        <v>0.0003891520817592742</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>16.149006</v>
+      </c>
+      <c r="H22">
+        <v>32.298012</v>
+      </c>
+      <c r="I22">
+        <v>0.1962920137562131</v>
+      </c>
+      <c r="J22">
+        <v>0.1400231512834484</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>23.433081</v>
+      </c>
+      <c r="N22">
+        <v>70.29924299999999</v>
+      </c>
+      <c r="O22">
+        <v>0.173071867147068</v>
+      </c>
+      <c r="P22">
+        <v>0.1775303340800033</v>
+      </c>
+      <c r="Q22">
+        <v>378.420965667486</v>
+      </c>
+      <c r="R22">
+        <v>2270.525794004915</v>
+      </c>
+      <c r="S22">
+        <v>0.03397262532684576</v>
+      </c>
+      <c r="T22">
+        <v>0.02485835682628543</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>16.149006</v>
+      </c>
+      <c r="H23">
+        <v>32.298012</v>
+      </c>
+      <c r="I23">
+        <v>0.1962920137562131</v>
+      </c>
+      <c r="J23">
+        <v>0.1400231512834484</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>41.43333666666666</v>
+      </c>
+      <c r="N23">
+        <v>124.30001</v>
+      </c>
+      <c r="O23">
+        <v>0.3060180152594135</v>
+      </c>
+      <c r="P23">
+        <v>0.3139012791567009</v>
+      </c>
+      <c r="Q23">
+        <v>669.1072024300199</v>
+      </c>
+      <c r="R23">
+        <v>4014.64321458012</v>
+      </c>
+      <c r="S23">
+        <v>0.06006889246094984</v>
+      </c>
+      <c r="T23">
+        <v>0.04395344629942669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>15.3687312588031</v>
-      </c>
-      <c r="H16">
-        <v>15.3687312588031</v>
-      </c>
-      <c r="I16">
-        <v>0.1989958503081155</v>
-      </c>
-      <c r="J16">
-        <v>0.1989958503081155</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>10.1819207408475</v>
-      </c>
-      <c r="N16">
-        <v>10.1819207408475</v>
-      </c>
-      <c r="O16">
-        <v>0.08291453788672445</v>
-      </c>
-      <c r="P16">
-        <v>0.08291453788672445</v>
-      </c>
-      <c r="Q16">
-        <v>156.4832035645186</v>
-      </c>
-      <c r="R16">
-        <v>156.4832035645186</v>
-      </c>
-      <c r="S16">
-        <v>0.01649964896967319</v>
-      </c>
-      <c r="T16">
-        <v>0.01649964896967319</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>16.149006</v>
+      </c>
+      <c r="H24">
+        <v>32.298012</v>
+      </c>
+      <c r="I24">
+        <v>0.1962920137562131</v>
+      </c>
+      <c r="J24">
+        <v>0.1400231512834484</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>30.91984733333334</v>
+      </c>
+      <c r="N24">
+        <v>92.75954200000001</v>
+      </c>
+      <c r="O24">
+        <v>0.228367567622981</v>
+      </c>
+      <c r="P24">
+        <v>0.2342504951350344</v>
+      </c>
+      <c r="Q24">
+        <v>499.3248001050841</v>
+      </c>
+      <c r="R24">
+        <v>2995.948800630504</v>
+      </c>
+      <c r="S24">
+        <v>0.04482672972532312</v>
+      </c>
+      <c r="T24">
+        <v>0.03280049251851561</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>16.149006</v>
+      </c>
+      <c r="H25">
+        <v>32.298012</v>
+      </c>
+      <c r="I25">
+        <v>0.1962920137562131</v>
+      </c>
+      <c r="J25">
+        <v>0.1400231512834484</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>29.40795633333333</v>
+      </c>
+      <c r="N25">
+        <v>88.22386900000001</v>
+      </c>
+      <c r="O25">
+        <v>0.2172010548501686</v>
+      </c>
+      <c r="P25">
+        <v>0.2227963242420754</v>
+      </c>
+      <c r="Q25">
+        <v>474.909263274738</v>
+      </c>
+      <c r="R25">
+        <v>2849.455579648428</v>
+      </c>
+      <c r="S25">
+        <v>0.0426348324465133</v>
+      </c>
+      <c r="T25">
+        <v>0.03119664341474434</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>16.149006</v>
+      </c>
+      <c r="H26">
+        <v>32.298012</v>
+      </c>
+      <c r="I26">
+        <v>0.1962920137562131</v>
+      </c>
+      <c r="J26">
+        <v>0.1400231512834484</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.2008685</v>
+      </c>
+      <c r="N26">
+        <v>20.401737</v>
+      </c>
+      <c r="O26">
+        <v>0.07534149512036896</v>
+      </c>
+      <c r="P26">
+        <v>0.05152156738618599</v>
+      </c>
+      <c r="Q26">
+        <v>164.733886611711</v>
+      </c>
+      <c r="R26">
+        <v>658.9355464468439</v>
+      </c>
+      <c r="S26">
+        <v>0.01478893379658113</v>
+      </c>
+      <c r="T26">
+        <v>0.007214212224476301</v>
       </c>
     </row>
   </sheetData>
